--- a/SPRINT 4/SW/calculo/Calculo de UCP.xlsx
+++ b/SPRINT 4/SW/calculo/Calculo de UCP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaov\Desktop\cp5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\labsfiap\Desktop\SW\calculo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065CBE36-7329-4B67-867E-C06EC022801A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DDC46B-CE51-4DF4-96E2-3AE55F52625B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="16305" tabRatio="613" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="613" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Use Cases" sheetId="1" r:id="rId1"/>
@@ -1186,57 +1186,93 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="18" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1270,42 +1306,6 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="17" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1323,7 +1323,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -1731,39 +1731,39 @@
   <sheetData>
     <row r="1" spans="2:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="83"/>
-      <c r="J2" s="81" t="s">
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="80"/>
+      <c r="J2" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="83"/>
+      <c r="K2" s="80"/>
       <c r="L2" s="17"/>
       <c r="M2" s="17"/>
       <c r="N2" s="17"/>
       <c r="O2" s="17"/>
     </row>
     <row r="3" spans="2:15" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="88"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="85"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="84" t="s">
+      <c r="J3" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="85"/>
+      <c r="K3" s="82"/>
     </row>
     <row r="4" spans="2:15" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="19">
@@ -1853,10 +1853,10 @@
       <c r="K7" s="25"/>
     </row>
     <row r="8" spans="2:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="84" t="s">
+      <c r="B8" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="89"/>
+      <c r="C8" s="86"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11" t="s">
         <v>9</v>
@@ -1879,8 +1879,8 @@
       <c r="N8" s="74"/>
     </row>
     <row r="9" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="78"/>
-      <c r="C9" s="79"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="77"/>
       <c r="D9" s="58"/>
       <c r="E9" s="51"/>
       <c r="F9" s="10"/>
@@ -1892,8 +1892,8 @@
       <c r="N9" s="74"/>
     </row>
     <row r="10" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="78"/>
-      <c r="C10" s="90"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="87"/>
       <c r="D10" s="58"/>
       <c r="E10" s="51"/>
       <c r="F10" s="10"/>
@@ -1905,8 +1905,8 @@
       <c r="N10" s="74"/>
     </row>
     <row r="11" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="78"/>
-      <c r="C11" s="90"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="87"/>
       <c r="D11" s="58"/>
       <c r="E11" s="51"/>
       <c r="F11" s="10"/>
@@ -1918,8 +1918,8 @@
       <c r="N11" s="74"/>
     </row>
     <row r="12" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="80"/>
-      <c r="C12" s="79"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="58"/>
       <c r="E12" s="51"/>
       <c r="F12" s="10"/>
@@ -1931,8 +1931,8 @@
       <c r="N12" s="74"/>
     </row>
     <row r="13" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="80"/>
-      <c r="C13" s="79"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="77"/>
       <c r="D13" s="58"/>
       <c r="E13" s="51"/>
       <c r="F13" s="10"/>
@@ -1944,8 +1944,8 @@
       <c r="N13" s="73"/>
     </row>
     <row r="14" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="78"/>
-      <c r="C14" s="79"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="77"/>
       <c r="D14" s="58"/>
       <c r="E14" s="51"/>
       <c r="F14" s="10"/>
@@ -1957,8 +1957,8 @@
       <c r="N14" s="73"/>
     </row>
     <row r="15" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="78"/>
-      <c r="C15" s="79"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="77"/>
       <c r="D15" s="58"/>
       <c r="E15" s="51"/>
       <c r="F15" s="10"/>
@@ -1970,8 +1970,8 @@
       <c r="N15" s="73"/>
     </row>
     <row r="16" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="78"/>
-      <c r="C16" s="79"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="77"/>
       <c r="D16" s="58"/>
       <c r="E16" s="51"/>
       <c r="F16" s="10"/>
@@ -1983,8 +1983,8 @@
       <c r="N16" s="73"/>
     </row>
     <row r="17" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="78"/>
-      <c r="C17" s="79"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="77"/>
       <c r="D17" s="58"/>
       <c r="E17" s="51"/>
       <c r="F17" s="10"/>
@@ -1996,8 +1996,8 @@
       <c r="N17" s="73"/>
     </row>
     <row r="18" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="78"/>
-      <c r="C18" s="79"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="77"/>
       <c r="D18" s="58"/>
       <c r="E18" s="51"/>
       <c r="F18" s="10"/>
@@ -2008,8 +2008,8 @@
       <c r="K18" s="29"/>
     </row>
     <row r="19" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="78"/>
-      <c r="C19" s="79"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="77"/>
       <c r="D19" s="58"/>
       <c r="E19" s="51"/>
       <c r="F19" s="10"/>
@@ -2020,8 +2020,8 @@
       <c r="K19" s="29"/>
     </row>
     <row r="20" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="78"/>
-      <c r="C20" s="79"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="77"/>
       <c r="D20" s="58"/>
       <c r="E20" s="51"/>
       <c r="F20" s="10"/>
@@ -2032,8 +2032,8 @@
       <c r="K20" s="29"/>
     </row>
     <row r="21" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="80"/>
-      <c r="C21" s="79"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="77"/>
       <c r="D21" s="58"/>
       <c r="E21" s="51"/>
       <c r="F21" s="10"/>
@@ -2043,31 +2043,31 @@
       <c r="K21" s="29"/>
     </row>
     <row r="22" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="76"/>
-      <c r="C22" s="77"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="90"/>
       <c r="D22" s="58"/>
       <c r="E22" s="51" t="str">
-        <f t="shared" ref="E10:E27" si="0">IF(D22="S",$B$4,IF(D22="M",$B$5,IF(D22="C",$B$6,IF(D22=""," ","Inválido"))))</f>
+        <f t="shared" ref="E22:E27" si="0">IF(D22="S",$B$4,IF(D22="M",$B$5,IF(D22="C",$B$6,IF(D22=""," ","Inválido"))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="F22" s="10" t="str">
-        <f t="shared" ref="F20:F27" si="1">IF(E22=5,1,"")</f>
+        <f t="shared" ref="F22:F27" si="1">IF(E22=5,1,"")</f>
         <v/>
       </c>
       <c r="G22" s="10" t="str">
-        <f t="shared" ref="G20:G27" si="2">IF(E22=10,1,"")</f>
+        <f t="shared" ref="G22:G27" si="2">IF(E22=10,1,"")</f>
         <v/>
       </c>
       <c r="H22" s="23" t="str">
-        <f t="shared" ref="H20:H27" si="3">IF(E22=15,1,"")</f>
+        <f t="shared" ref="H22:H27" si="3">IF(E22=15,1,"")</f>
         <v/>
       </c>
       <c r="J22" s="28"/>
       <c r="K22" s="29"/>
     </row>
     <row r="23" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="76"/>
-      <c r="C23" s="77"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="90"/>
       <c r="D23" s="58"/>
       <c r="E23" s="51" t="str">
         <f t="shared" si="0"/>
@@ -2089,8 +2089,8 @@
       <c r="K23" s="29"/>
     </row>
     <row r="24" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="76"/>
-      <c r="C24" s="77"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="90"/>
       <c r="D24" s="58"/>
       <c r="E24" s="51" t="str">
         <f t="shared" si="0"/>
@@ -2112,8 +2112,8 @@
       <c r="K24" s="29"/>
     </row>
     <row r="25" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="76"/>
-      <c r="C25" s="77"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="90"/>
       <c r="D25" s="58"/>
       <c r="E25" s="51" t="str">
         <f t="shared" si="0"/>
@@ -2135,8 +2135,8 @@
       <c r="K25" s="29"/>
     </row>
     <row r="26" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="76"/>
-      <c r="C26" s="77"/>
+      <c r="B26" s="89"/>
+      <c r="C26" s="90"/>
       <c r="D26" s="58"/>
       <c r="E26" s="51" t="str">
         <f t="shared" si="0"/>
@@ -2158,8 +2158,8 @@
       <c r="K26" s="29"/>
     </row>
     <row r="27" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="76"/>
-      <c r="C27" s="77"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="90"/>
       <c r="D27" s="58"/>
       <c r="E27" s="51" t="str">
         <f t="shared" si="0"/>
@@ -2221,6 +2221,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="J3:K3"/>
@@ -2233,18 +2245,6 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="F9:H27 F29:H196">
@@ -2286,13 +2286,13 @@
   <sheetData>
     <row r="1" spans="2:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="83"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="55"/>
       <c r="H2" s="55"/>
       <c r="J2" s="4"/>
@@ -2302,10 +2302,10 @@
       <c r="F3" s="35"/>
     </row>
     <row r="4" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="111"/>
+      <c r="C4" s="98"/>
       <c r="D4" s="7" t="s">
         <v>5</v>
       </c>
@@ -2445,38 +2445,38 @@
       </c>
     </row>
     <row r="13" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="112" t="s">
+      <c r="B13" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="113"/>
-      <c r="D13" s="102">
+      <c r="C13" s="102"/>
+      <c r="D13" s="114">
         <f>SUM(F5:F12)</f>
         <v>24.5</v>
       </c>
-      <c r="E13" s="102"/>
-      <c r="F13" s="103"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="115"/>
     </row>
     <row r="14" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="114" t="s">
+      <c r="B14" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="115"/>
-      <c r="D14" s="93">
+      <c r="C14" s="104"/>
+      <c r="D14" s="105">
         <f>1.4+(-0.03*D13)</f>
         <v>0.66499999999999992</v>
       </c>
-      <c r="E14" s="94"/>
-      <c r="F14" s="95"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="107"/>
     </row>
     <row r="15" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="21"/>
       <c r="F15" s="35"/>
     </row>
     <row r="16" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="110" t="s">
+      <c r="B16" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="111"/>
+      <c r="C16" s="98"/>
       <c r="D16" s="7" t="s">
         <v>5</v>
       </c>
@@ -2489,10 +2489,10 @@
       <c r="J16" s="12"/>
     </row>
     <row r="17" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="104" t="s">
+      <c r="B17" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="105"/>
+      <c r="C17" s="100"/>
       <c r="D17" s="70">
         <v>2</v>
       </c>
@@ -2506,10 +2506,10 @@
       <c r="J17" s="12"/>
     </row>
     <row r="18" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="104" t="s">
+      <c r="B18" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="105"/>
+      <c r="C18" s="100"/>
       <c r="D18" s="70">
         <v>2</v>
       </c>
@@ -2523,10 +2523,10 @@
       <c r="J18" s="12"/>
     </row>
     <row r="19" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="104" t="s">
+      <c r="B19" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="105"/>
+      <c r="C19" s="100"/>
       <c r="D19" s="70">
         <v>1.5</v>
       </c>
@@ -2540,10 +2540,10 @@
       <c r="J19" s="12"/>
     </row>
     <row r="20" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="104" t="s">
+      <c r="B20" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="105"/>
+      <c r="C20" s="100"/>
       <c r="D20" s="70">
         <v>1.5</v>
       </c>
@@ -2557,10 +2557,10 @@
       <c r="J20" s="12"/>
     </row>
     <row r="21" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="104" t="s">
+      <c r="B21" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="105"/>
+      <c r="C21" s="100"/>
       <c r="D21" s="70">
         <v>1</v>
       </c>
@@ -2574,10 +2574,10 @@
       <c r="J21" s="12"/>
     </row>
     <row r="22" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="104" t="s">
+      <c r="B22" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="105"/>
+      <c r="C22" s="100"/>
       <c r="D22" s="70">
         <v>0.5</v>
       </c>
@@ -2590,10 +2590,10 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="104" t="s">
+      <c r="B23" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="105"/>
+      <c r="C23" s="100"/>
       <c r="D23" s="70">
         <v>0.5</v>
       </c>
@@ -2606,10 +2606,10 @@
       </c>
     </row>
     <row r="24" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="104" t="s">
+      <c r="B24" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="105"/>
+      <c r="C24" s="100"/>
       <c r="D24" s="70">
         <v>2</v>
       </c>
@@ -2622,10 +2622,10 @@
       </c>
     </row>
     <row r="25" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="104" t="s">
+      <c r="B25" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="105"/>
+      <c r="C25" s="100"/>
       <c r="D25" s="70">
         <v>1</v>
       </c>
@@ -2638,10 +2638,10 @@
       </c>
     </row>
     <row r="26" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="104" t="s">
+      <c r="B26" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="105"/>
+      <c r="C26" s="100"/>
       <c r="D26" s="70">
         <v>1</v>
       </c>
@@ -2654,10 +2654,10 @@
       </c>
     </row>
     <row r="27" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="104" t="s">
+      <c r="B27" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="105"/>
+      <c r="C27" s="100"/>
       <c r="D27" s="70">
         <v>1</v>
       </c>
@@ -2670,10 +2670,10 @@
       </c>
     </row>
     <row r="28" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="104" t="s">
+      <c r="B28" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="105"/>
+      <c r="C28" s="100"/>
       <c r="D28" s="70">
         <v>1</v>
       </c>
@@ -2686,10 +2686,10 @@
       </c>
     </row>
     <row r="29" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="104" t="s">
+      <c r="B29" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="105"/>
+      <c r="C29" s="100"/>
       <c r="D29" s="70">
         <v>1</v>
       </c>
@@ -2702,28 +2702,28 @@
       </c>
     </row>
     <row r="30" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="106" t="s">
+      <c r="B30" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="107"/>
-      <c r="D30" s="96">
+      <c r="C30" s="94"/>
+      <c r="D30" s="108">
         <f>SUM(F17:F29)</f>
         <v>56.5</v>
       </c>
-      <c r="E30" s="97"/>
-      <c r="F30" s="98"/>
+      <c r="E30" s="109"/>
+      <c r="F30" s="110"/>
     </row>
     <row r="31" spans="2:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="108" t="s">
+      <c r="B31" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="109"/>
-      <c r="D31" s="99">
+      <c r="C31" s="96"/>
+      <c r="D31" s="111">
         <f>0.6+(0.01*D30)</f>
         <v>1.165</v>
       </c>
-      <c r="E31" s="100"/>
-      <c r="F31" s="101"/>
+      <c r="E31" s="112"/>
+      <c r="F31" s="113"/>
       <c r="H31" s="68"/>
     </row>
     <row r="32" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2770,6 +2770,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B30:C30"/>
@@ -2786,22 +2802,6 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2816,7 +2816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -2835,10 +2835,10 @@
   <sheetData>
     <row r="1" spans="2:5" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="83"/>
+      <c r="C2" s="80"/>
       <c r="D2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3156,26 +3156,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="7e3d2bc7-1e8b-4412-b9e4-2111d76bd9c9" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7bc641a7-997f-4048-a412-d593c6319208">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100223DA578DE33E44E8DD11C312C11F0C0" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d526c22b1d23e28afc99822b88121eac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7bc641a7-997f-4048-a412-d593c6319208" xmlns:ns3="7e3d2bc7-1e8b-4412-b9e4-2111d76bd9c9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc08be22a24865d043bf2c5a4ec5c598" ns2:_="" ns3:_="">
     <xsd:import namespace="7bc641a7-997f-4048-a412-d593c6319208"/>
@@ -3376,10 +3356,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="7e3d2bc7-1e8b-4412-b9e4-2111d76bd9c9" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7bc641a7-997f-4048-a412-d593c6319208">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20A80214-ECB5-4535-9A34-CC5070926BA0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E4CC291-5980-43B8-9D45-D2AA3A3B25CD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7bc641a7-997f-4048-a412-d593c6319208"/>
+    <ds:schemaRef ds:uri="7e3d2bc7-1e8b-4412-b9e4-2111d76bd9c9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3396,20 +3407,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E4CC291-5980-43B8-9D45-D2AA3A3B25CD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20A80214-ECB5-4535-9A34-CC5070926BA0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="7bc641a7-997f-4048-a412-d593c6319208"/>
-    <ds:schemaRef ds:uri="7e3d2bc7-1e8b-4412-b9e4-2111d76bd9c9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SPRINT 4/SW/calculo/Calculo de UCP.xlsx
+++ b/SPRINT 4/SW/calculo/Calculo de UCP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\labsfiap\Desktop\SW\calculo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\labsfiap\Documents\GitHub\ChallengerFIAP\SPRINT 4\SW\calculo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DDC46B-CE51-4DF4-96E2-3AE55F52625B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E61BC60-3DA9-4E39-BC82-68934E669810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="613" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11175" yWindow="2640" windowWidth="15375" windowHeight="7875" tabRatio="613" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Use Cases" sheetId="1" r:id="rId1"/>
@@ -195,7 +195,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="98">
   <si>
     <t>Use Case</t>
   </si>
@@ -447,6 +447,48 @@
   </si>
   <si>
     <t>Entidade Externa</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Acessando o Site</t>
+  </si>
+  <si>
+    <t>Fazendo Login</t>
+  </si>
+  <si>
+    <t>Fazendo Cadastro</t>
+  </si>
+  <si>
+    <t>Acessando Perfil</t>
+  </si>
+  <si>
+    <t>Acessando Agendamento</t>
+  </si>
+  <si>
+    <t>Atualizar Dados</t>
+  </si>
+  <si>
+    <t>Acessando Histórico</t>
+  </si>
+  <si>
+    <t>Cadastrar Veiculo</t>
+  </si>
+  <si>
+    <t>Receber Relatório</t>
+  </si>
+  <si>
+    <t>Gerar Perguntas</t>
+  </si>
+  <si>
+    <t>Gerar Diagnóstico</t>
+  </si>
+  <si>
+    <t>Gerar Orçamento</t>
+  </si>
+  <si>
+    <t>ChatBot</t>
   </si>
 </sst>
 </file>
@@ -1222,13 +1264,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1709,8 +1751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O31"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1879,37 +1921,69 @@
       <c r="N8" s="74"/>
     </row>
     <row r="9" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="76"/>
+      <c r="B9" s="76" t="s">
+        <v>85</v>
+      </c>
       <c r="C9" s="77"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="10"/>
+      <c r="D9" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="51">
+        <v>5</v>
+      </c>
+      <c r="F9" s="10">
+        <v>1</v>
+      </c>
       <c r="G9" s="10"/>
       <c r="H9" s="23"/>
       <c r="I9" s="9"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="29"/>
+      <c r="J9" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="K9" s="29">
+        <v>3</v>
+      </c>
       <c r="N9" s="74"/>
     </row>
     <row r="10" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="76"/>
+      <c r="B10" s="76" t="s">
+        <v>86</v>
+      </c>
       <c r="C10" s="87"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="10"/>
+      <c r="D10" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="51">
+        <v>5</v>
+      </c>
+      <c r="F10" s="10">
+        <v>1</v>
+      </c>
       <c r="G10" s="10"/>
       <c r="H10" s="23"/>
       <c r="I10" s="9"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="29"/>
+      <c r="J10" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="K10" s="29">
+        <v>3</v>
+      </c>
       <c r="N10" s="74"/>
     </row>
     <row r="11" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="76"/>
+      <c r="B11" s="76" t="s">
+        <v>87</v>
+      </c>
       <c r="C11" s="87"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="10"/>
+      <c r="D11" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="51">
+        <v>5</v>
+      </c>
+      <c r="F11" s="10">
+        <v>1</v>
+      </c>
       <c r="G11" s="10"/>
       <c r="H11" s="23"/>
       <c r="I11" s="9"/>
@@ -1918,11 +1992,19 @@
       <c r="N11" s="74"/>
     </row>
     <row r="12" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="88"/>
+      <c r="B12" s="76" t="s">
+        <v>88</v>
+      </c>
       <c r="C12" s="77"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="10"/>
+      <c r="D12" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="51">
+        <v>5</v>
+      </c>
+      <c r="F12" s="10">
+        <v>1</v>
+      </c>
       <c r="G12" s="10"/>
       <c r="H12" s="23"/>
       <c r="I12" s="9"/>
@@ -1931,11 +2013,19 @@
       <c r="N12" s="74"/>
     </row>
     <row r="13" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="88"/>
+      <c r="B13" s="76" t="s">
+        <v>91</v>
+      </c>
       <c r="C13" s="77"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="10"/>
+      <c r="D13" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="51">
+        <v>5</v>
+      </c>
+      <c r="F13" s="10">
+        <v>1</v>
+      </c>
       <c r="G13" s="10"/>
       <c r="H13" s="23"/>
       <c r="I13" s="9"/>
@@ -1944,11 +2034,19 @@
       <c r="N13" s="73"/>
     </row>
     <row r="14" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="76"/>
+      <c r="B14" s="76" t="s">
+        <v>89</v>
+      </c>
       <c r="C14" s="77"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="10"/>
+      <c r="D14" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="51">
+        <v>5</v>
+      </c>
+      <c r="F14" s="10">
+        <v>1</v>
+      </c>
       <c r="G14" s="10"/>
       <c r="H14" s="23"/>
       <c r="I14" s="9"/>
@@ -1957,12 +2055,20 @@
       <c r="N14" s="73"/>
     </row>
     <row r="15" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="76"/>
+      <c r="B15" s="76" t="s">
+        <v>92</v>
+      </c>
       <c r="C15" s="77"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="51"/>
+      <c r="D15" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="51">
+        <v>10</v>
+      </c>
       <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
+      <c r="G15" s="10">
+        <v>1</v>
+      </c>
       <c r="H15" s="23"/>
       <c r="I15" s="9"/>
       <c r="J15" s="28"/>
@@ -1970,12 +2076,20 @@
       <c r="N15" s="73"/>
     </row>
     <row r="16" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="76"/>
+      <c r="B16" s="76" t="s">
+        <v>90</v>
+      </c>
       <c r="C16" s="77"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="51"/>
+      <c r="D16" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="51">
+        <v>10</v>
+      </c>
       <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
+      <c r="G16" s="10">
+        <v>1</v>
+      </c>
       <c r="H16" s="23"/>
       <c r="I16" s="9"/>
       <c r="J16" s="28"/>
@@ -1983,12 +2097,20 @@
       <c r="N16" s="73"/>
     </row>
     <row r="17" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="76"/>
+      <c r="B17" s="76" t="s">
+        <v>93</v>
+      </c>
       <c r="C17" s="77"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="51"/>
+      <c r="D17" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="51">
+        <v>10</v>
+      </c>
       <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
+      <c r="G17" s="10">
+        <v>1</v>
+      </c>
       <c r="H17" s="23"/>
       <c r="I17" s="9"/>
       <c r="J17" s="28"/>
@@ -1996,43 +2118,67 @@
       <c r="N17" s="73"/>
     </row>
     <row r="18" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="76"/>
+      <c r="B18" s="76" t="s">
+        <v>94</v>
+      </c>
       <c r="C18" s="77"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="51"/>
+      <c r="D18" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="51">
+        <v>15</v>
+      </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="23"/>
+      <c r="H18" s="23">
+        <v>1</v>
+      </c>
       <c r="I18" s="9"/>
       <c r="J18" s="28"/>
       <c r="K18" s="29"/>
     </row>
     <row r="19" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="76"/>
+      <c r="B19" s="76" t="s">
+        <v>95</v>
+      </c>
       <c r="C19" s="77"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="51"/>
+      <c r="D19" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="51">
+        <v>15</v>
+      </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
-      <c r="H19" s="23"/>
+      <c r="H19" s="23">
+        <v>1</v>
+      </c>
       <c r="I19" s="9"/>
       <c r="J19" s="28"/>
       <c r="K19" s="29"/>
     </row>
     <row r="20" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="76"/>
+      <c r="B20" s="76" t="s">
+        <v>96</v>
+      </c>
       <c r="C20" s="77"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="51"/>
+      <c r="D20" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="51">
+        <v>15</v>
+      </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
-      <c r="H20" s="23"/>
+      <c r="H20" s="23">
+        <v>1</v>
+      </c>
       <c r="I20" s="9"/>
       <c r="J20" s="28"/>
       <c r="K20" s="29"/>
     </row>
     <row r="21" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="88"/>
+      <c r="B21" s="90"/>
       <c r="C21" s="77"/>
       <c r="D21" s="58"/>
       <c r="E21" s="51"/>
@@ -2043,8 +2189,8 @@
       <c r="K21" s="29"/>
     </row>
     <row r="22" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="89"/>
-      <c r="C22" s="90"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="89"/>
       <c r="D22" s="58"/>
       <c r="E22" s="51" t="str">
         <f t="shared" ref="E22:E27" si="0">IF(D22="S",$B$4,IF(D22="M",$B$5,IF(D22="C",$B$6,IF(D22=""," ","Inválido"))))</f>
@@ -2066,8 +2212,8 @@
       <c r="K22" s="29"/>
     </row>
     <row r="23" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="89"/>
-      <c r="C23" s="90"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="89"/>
       <c r="D23" s="58"/>
       <c r="E23" s="51" t="str">
         <f t="shared" si="0"/>
@@ -2089,8 +2235,8 @@
       <c r="K23" s="29"/>
     </row>
     <row r="24" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="89"/>
-      <c r="C24" s="90"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="89"/>
       <c r="D24" s="58"/>
       <c r="E24" s="51" t="str">
         <f t="shared" si="0"/>
@@ -2112,8 +2258,8 @@
       <c r="K24" s="29"/>
     </row>
     <row r="25" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="89"/>
-      <c r="C25" s="90"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="89"/>
       <c r="D25" s="58"/>
       <c r="E25" s="51" t="str">
         <f t="shared" si="0"/>
@@ -2135,8 +2281,8 @@
       <c r="K25" s="29"/>
     </row>
     <row r="26" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="89"/>
-      <c r="C26" s="90"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="89"/>
       <c r="D26" s="58"/>
       <c r="E26" s="51" t="str">
         <f t="shared" si="0"/>
@@ -2158,8 +2304,8 @@
       <c r="K26" s="29"/>
     </row>
     <row r="27" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="89"/>
-      <c r="C27" s="90"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="89"/>
       <c r="D27" s="58"/>
       <c r="E27" s="51" t="str">
         <f t="shared" si="0"/>
@@ -2188,26 +2334,26 @@
       <c r="D28" s="31"/>
       <c r="E28" s="64">
         <f>SUM(E9:E27)</f>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="F28" s="32">
         <f>SUM(F9:F27)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G28" s="32">
         <f>SUM(G9:G27)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H28" s="33">
         <f>SUM(H9:H27)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J28" s="34" t="s">
         <v>50</v>
       </c>
       <c r="K28" s="65">
         <f>SUM(K9:K27)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2268,7 +2414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:J41"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
@@ -2816,8 +2962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2861,7 +3007,7 @@
       </c>
       <c r="C5" s="40">
         <f>SUM('Use Cases'!F9:F27)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="1"/>
@@ -2872,7 +3018,7 @@
       </c>
       <c r="C6" s="40">
         <f>SUM('Use Cases'!G9:G27)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="1"/>
@@ -2883,7 +3029,7 @@
       </c>
       <c r="C7" s="40">
         <f>SUM('Use Cases'!H9:H27)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="1"/>
@@ -2894,7 +3040,7 @@
       </c>
       <c r="C8" s="42">
         <f>SUM(C5:C7)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="1"/>
@@ -2905,7 +3051,7 @@
       </c>
       <c r="C9" s="42">
         <f>COUNTA('Use Cases'!K9:K27)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="1"/>
@@ -2930,7 +3076,7 @@
       </c>
       <c r="C12" s="69">
         <f>SUM('Use Cases'!E9:E27)</f>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="1"/>
@@ -2941,7 +3087,7 @@
       </c>
       <c r="C13" s="69">
         <f>SUM('Use Cases'!K9:K27)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="1"/>
@@ -2952,7 +3098,7 @@
       </c>
       <c r="C14" s="53">
         <f>C13+C12</f>
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="1"/>
@@ -2985,7 +3131,7 @@
       </c>
       <c r="C17" s="42">
         <f>ROUNDUP(C14*C15*C16,0)</f>
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="1"/>
@@ -3008,7 +3154,9 @@
       <c r="B20" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="50"/>
+      <c r="C20" s="50">
+        <v>10</v>
+      </c>
       <c r="D20" s="5"/>
       <c r="E20" s="1"/>
       <c r="F20" s="60"/>
@@ -3057,7 +3205,9 @@
       <c r="B25" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="42"/>
+      <c r="C25" s="42">
+        <v>800</v>
+      </c>
       <c r="D25" s="5"/>
       <c r="E25" s="59"/>
     </row>
@@ -3085,7 +3235,7 @@
         <v>76</v>
       </c>
       <c r="C28" s="75">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="D28" s="116">
         <v>0.6</v>
@@ -3098,7 +3248,7 @@
       </c>
       <c r="C29" s="71">
         <f>C25*D28*C28</f>
-        <v>0</v>
+        <v>47520</v>
       </c>
       <c r="D29" s="117"/>
       <c r="E29" s="3"/>
@@ -3108,7 +3258,7 @@
         <v>77</v>
       </c>
       <c r="C30" s="71">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D30" s="116">
         <f>1-D28</f>
@@ -3122,7 +3272,7 @@
       </c>
       <c r="C31" s="71">
         <f>C25*D30*C30</f>
-        <v>0</v>
+        <v>25280</v>
       </c>
       <c r="D31" s="117"/>
       <c r="E31" s="3"/>
@@ -3133,7 +3283,7 @@
       </c>
       <c r="C32" s="49">
         <f>C29+C31</f>
-        <v>0</v>
+        <v>72800</v>
       </c>
       <c r="E32" s="3"/>
     </row>
